--- a/atomica/library/combined_progbook.xlsx
+++ b/atomica/library/combined_progbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3518D38D-F406-4F6B-872E-5A1BCCF244AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9C9DE-0F29-438D-986E-876F6E0A8B47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="920">
+  <dxfs count="540">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -5491,5364 +5491,6 @@
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFEEEEEE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -12885,342 +7527,342 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="919" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="80" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="918" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="91" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E7">
-    <cfRule type="cellIs" dxfId="917" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="916" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="915" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="914" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="913" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="912" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="56" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="911" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="69" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="910" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="81" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="909" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="92" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="908" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="907" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="906" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="905" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="904" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="46" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="903" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="57" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="cellIs" dxfId="902" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="70" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="901" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="82" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="900" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="93" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="899" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="71" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="898" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="897" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="896" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="895" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="894" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="50" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G11">
-    <cfRule type="cellIs" dxfId="893" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="892" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="891" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="890" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="889" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="888" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="51" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="887" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="85" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="886" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="96" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="cellIs" dxfId="885" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="884" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="883" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="52" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="882" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="63" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="881" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="74" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="880" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="86" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="879" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="97" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="878" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="877" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="876" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="875" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="64" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="874" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="75" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="873" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="87" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="872" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="98" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="871" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="870" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="869" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="868" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="867" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="866" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="65" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="865" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M10">
-    <cfRule type="cellIs" dxfId="864" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="88" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="863" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="99" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="862" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="861" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="860" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="859" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="858" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="55" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="857" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="100" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="856" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="90" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="855" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="101" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="854" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="68" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="853" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="79" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="852" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14370,362 +9012,362 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="851" priority="13">
+    <cfRule type="expression" dxfId="471" priority="13">
       <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="14">
+    <cfRule type="expression" dxfId="470" priority="14">
       <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="849" priority="15">
+    <cfRule type="expression" dxfId="469" priority="15">
       <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="16">
+    <cfRule type="expression" dxfId="468" priority="16">
       <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="847" priority="17">
+    <cfRule type="expression" dxfId="467" priority="17">
       <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="18">
+    <cfRule type="expression" dxfId="466" priority="18">
       <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="845" priority="19">
+    <cfRule type="expression" dxfId="465" priority="19">
       <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="20">
+    <cfRule type="expression" dxfId="464" priority="20">
       <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="843" priority="21">
+    <cfRule type="expression" dxfId="463" priority="21">
       <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="22">
+    <cfRule type="expression" dxfId="462" priority="22">
       <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="841" priority="23">
+    <cfRule type="expression" dxfId="461" priority="23">
       <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="24">
+    <cfRule type="expression" dxfId="460" priority="24">
       <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="839" priority="25">
+    <cfRule type="expression" dxfId="459" priority="25">
       <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="26">
+    <cfRule type="expression" dxfId="458" priority="26">
       <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="837" priority="27">
+    <cfRule type="expression" dxfId="457" priority="27">
       <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="28">
+    <cfRule type="expression" dxfId="456" priority="28">
       <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="835" priority="1">
+    <cfRule type="expression" dxfId="455" priority="1">
       <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="2">
+    <cfRule type="expression" dxfId="454" priority="2">
       <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="833" priority="29">
+    <cfRule type="expression" dxfId="453" priority="29">
       <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="30">
+    <cfRule type="expression" dxfId="452" priority="30">
       <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="831" priority="31">
+    <cfRule type="expression" dxfId="451" priority="31">
       <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="32">
+    <cfRule type="expression" dxfId="450" priority="32">
       <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="829" priority="33">
+    <cfRule type="expression" dxfId="449" priority="33">
       <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="34">
+    <cfRule type="expression" dxfId="448" priority="34">
       <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="827" priority="35">
+    <cfRule type="expression" dxfId="447" priority="35">
       <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="36">
+    <cfRule type="expression" dxfId="446" priority="36">
       <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="825" priority="37">
+    <cfRule type="expression" dxfId="445" priority="37">
       <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="38">
+    <cfRule type="expression" dxfId="444" priority="38">
       <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="823" priority="39">
+    <cfRule type="expression" dxfId="443" priority="39">
       <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="40">
+    <cfRule type="expression" dxfId="442" priority="40">
       <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="821" priority="3">
+    <cfRule type="expression" dxfId="441" priority="3">
       <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="4">
+    <cfRule type="expression" dxfId="440" priority="4">
       <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="819" priority="41">
+    <cfRule type="expression" dxfId="439" priority="41">
       <formula>COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="42">
+    <cfRule type="expression" dxfId="438" priority="42">
       <formula>AND(COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="817" priority="43">
+    <cfRule type="expression" dxfId="437" priority="43">
       <formula>COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="44">
+    <cfRule type="expression" dxfId="436" priority="44">
       <formula>AND(COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="815" priority="45">
+    <cfRule type="expression" dxfId="435" priority="45">
       <formula>COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="46">
+    <cfRule type="expression" dxfId="434" priority="46">
       <formula>AND(COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="813" priority="47">
+    <cfRule type="expression" dxfId="433" priority="47">
       <formula>COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="48">
+    <cfRule type="expression" dxfId="432" priority="48">
       <formula>AND(COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="811" priority="49">
+    <cfRule type="expression" dxfId="431" priority="49">
       <formula>COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="50">
+    <cfRule type="expression" dxfId="430" priority="50">
       <formula>AND(COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="809" priority="51">
+    <cfRule type="expression" dxfId="429" priority="51">
       <formula>COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="52">
+    <cfRule type="expression" dxfId="428" priority="52">
       <formula>AND(COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="807" priority="53">
+    <cfRule type="expression" dxfId="427" priority="53">
       <formula>COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="54">
+    <cfRule type="expression" dxfId="426" priority="54">
       <formula>AND(COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="805" priority="55">
+    <cfRule type="expression" dxfId="425" priority="55">
       <formula>COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="56">
+    <cfRule type="expression" dxfId="424" priority="56">
       <formula>AND(COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="803" priority="5">
+    <cfRule type="expression" dxfId="423" priority="5">
       <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="6">
+    <cfRule type="expression" dxfId="422" priority="6">
       <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="801" priority="57">
+    <cfRule type="expression" dxfId="421" priority="57">
       <formula>COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="58">
+    <cfRule type="expression" dxfId="420" priority="58">
       <formula>AND(COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="799" priority="59">
+    <cfRule type="expression" dxfId="419" priority="59">
       <formula>COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="60">
+    <cfRule type="expression" dxfId="418" priority="60">
       <formula>AND(COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="797" priority="61">
+    <cfRule type="expression" dxfId="417" priority="61">
       <formula>COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="62">
+    <cfRule type="expression" dxfId="416" priority="62">
       <formula>AND(COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="795" priority="63">
+    <cfRule type="expression" dxfId="415" priority="63">
       <formula>COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="64">
+    <cfRule type="expression" dxfId="414" priority="64">
       <formula>AND(COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="793" priority="65">
+    <cfRule type="expression" dxfId="413" priority="65">
       <formula>COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="66">
+    <cfRule type="expression" dxfId="412" priority="66">
       <formula>AND(COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="791" priority="67">
+    <cfRule type="expression" dxfId="411" priority="67">
       <formula>COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="68">
+    <cfRule type="expression" dxfId="410" priority="68">
       <formula>AND(COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="789" priority="69">
+    <cfRule type="expression" dxfId="409" priority="69">
       <formula>COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="70">
+    <cfRule type="expression" dxfId="408" priority="70">
       <formula>AND(COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="787" priority="7">
+    <cfRule type="expression" dxfId="407" priority="7">
       <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="8">
+    <cfRule type="expression" dxfId="406" priority="8">
       <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="785" priority="71">
+    <cfRule type="expression" dxfId="405" priority="71">
       <formula>COUNTIF(F51:I51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="72">
+    <cfRule type="expression" dxfId="404" priority="72">
       <formula>AND(COUNTIF(F51:I51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="783" priority="73">
+    <cfRule type="expression" dxfId="403" priority="73">
       <formula>COUNTIF(F52:I52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="74">
+    <cfRule type="expression" dxfId="402" priority="74">
       <formula>AND(COUNTIF(F52:I52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="781" priority="75">
+    <cfRule type="expression" dxfId="401" priority="75">
       <formula>COUNTIF(F53:I53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="76">
+    <cfRule type="expression" dxfId="400" priority="76">
       <formula>AND(COUNTIF(F53:I53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="779" priority="77">
+    <cfRule type="expression" dxfId="399" priority="77">
       <formula>COUNTIF(F54:I54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="78">
+    <cfRule type="expression" dxfId="398" priority="78">
       <formula>AND(COUNTIF(F54:I54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="777" priority="79">
+    <cfRule type="expression" dxfId="397" priority="79">
       <formula>COUNTIF(F55:I55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="80">
+    <cfRule type="expression" dxfId="396" priority="80">
       <formula>AND(COUNTIF(F55:I55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="775" priority="81">
+    <cfRule type="expression" dxfId="395" priority="81">
       <formula>COUNTIF(F58:I58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="82">
+    <cfRule type="expression" dxfId="394" priority="82">
       <formula>AND(COUNTIF(F58:I58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="773" priority="83">
+    <cfRule type="expression" dxfId="393" priority="83">
       <formula>COUNTIF(F59:I59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="84">
+    <cfRule type="expression" dxfId="392" priority="84">
       <formula>AND(COUNTIF(F59:I59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="771" priority="9">
+    <cfRule type="expression" dxfId="391" priority="9">
       <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="10">
+    <cfRule type="expression" dxfId="390" priority="10">
       <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="769" priority="85">
+    <cfRule type="expression" dxfId="389" priority="85">
       <formula>COUNTIF(F60:I60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="86">
+    <cfRule type="expression" dxfId="388" priority="86">
       <formula>AND(COUNTIF(F60:I60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="767" priority="87">
+    <cfRule type="expression" dxfId="387" priority="87">
       <formula>COUNTIF(F61:I61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="88">
+    <cfRule type="expression" dxfId="386" priority="88">
       <formula>AND(COUNTIF(F61:I61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="765" priority="89">
+    <cfRule type="expression" dxfId="385" priority="89">
       <formula>COUNTIF(F62:I62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="90">
+    <cfRule type="expression" dxfId="384" priority="90">
       <formula>AND(COUNTIF(F62:I62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="763" priority="11">
+    <cfRule type="expression" dxfId="383" priority="11">
       <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="12">
+    <cfRule type="expression" dxfId="382" priority="12">
       <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14743,7 +9385,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15738,146 +10380,146 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="761" priority="191">
+    <cfRule type="expression" dxfId="381" priority="191">
       <formula>COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="192">
+    <cfRule type="expression" dxfId="380" priority="192">
       <formula>AND(COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="759" priority="211">
+    <cfRule type="expression" dxfId="379" priority="211">
       <formula>COUNTIF(F9:O9,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="212">
+    <cfRule type="expression" dxfId="378" priority="212">
       <formula>AND(COUNTIF(F9:O9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="753" priority="271">
+    <cfRule type="expression" dxfId="377" priority="271">
       <formula>COUNTIF(F12:O12,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="272">
+    <cfRule type="expression" dxfId="376" priority="272">
       <formula>AND(COUNTIF(F12:O12,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="751" priority="291">
+    <cfRule type="expression" dxfId="375" priority="291">
       <formula>COUNTIF(F13:O13,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="292">
+    <cfRule type="expression" dxfId="374" priority="292">
       <formula>AND(COUNTIF(F13:O13,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="749" priority="311">
+    <cfRule type="expression" dxfId="373" priority="311">
       <formula>COUNTIF(F14:O14,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="312">
+    <cfRule type="expression" dxfId="372" priority="312">
       <formula>AND(COUNTIF(F14:O14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="745" priority="71">
+    <cfRule type="expression" dxfId="371" priority="71">
       <formula>COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="72">
+    <cfRule type="expression" dxfId="370" priority="72">
       <formula>AND(COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="741" priority="371">
+    <cfRule type="expression" dxfId="369" priority="371">
       <formula>COUNTIF(F17:O17,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="372">
+    <cfRule type="expression" dxfId="368" priority="372">
       <formula>AND(COUNTIF(F17:O17,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="739" priority="391">
+    <cfRule type="expression" dxfId="367" priority="391">
       <formula>COUNTIF(F18:O18,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="392">
+    <cfRule type="expression" dxfId="366" priority="392">
       <formula>AND(COUNTIF(F18:O18,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="737" priority="411">
+    <cfRule type="expression" dxfId="365" priority="411">
       <formula>COUNTIF(F19:O19,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="412">
+    <cfRule type="expression" dxfId="364" priority="412">
       <formula>AND(COUNTIF(F19:O19,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="731" priority="91">
+    <cfRule type="expression" dxfId="363" priority="91">
       <formula>COUNTIF(F3:O3,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="92">
+    <cfRule type="expression" dxfId="362" priority="92">
       <formula>AND(COUNTIF(F3:O3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="729" priority="471">
+    <cfRule type="expression" dxfId="361" priority="471">
       <formula>COUNTIF(F22:O22,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="472">
+    <cfRule type="expression" dxfId="360" priority="472">
       <formula>AND(COUNTIF(F22:O22,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="727" priority="491">
+    <cfRule type="expression" dxfId="359" priority="491">
       <formula>COUNTIF(F23:O23,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="492">
+    <cfRule type="expression" dxfId="358" priority="492">
       <formula>AND(COUNTIF(F23:O23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="725" priority="511">
+    <cfRule type="expression" dxfId="357" priority="511">
       <formula>COUNTIF(F24:O24,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="512">
+    <cfRule type="expression" dxfId="356" priority="512">
       <formula>AND(COUNTIF(F24:O24,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="713" priority="111">
+    <cfRule type="expression" dxfId="355" priority="111">
       <formula>COUNTIF(F4:O4,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="112">
+    <cfRule type="expression" dxfId="354" priority="112">
       <formula>AND(COUNTIF(F4:O4,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="697" priority="831">
+    <cfRule type="expression" dxfId="353" priority="831">
       <formula>COUNTIF(F35:O35,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="832">
+    <cfRule type="expression" dxfId="352" priority="832">
       <formula>AND(COUNTIF(F35:O35,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="695" priority="851">
+    <cfRule type="expression" dxfId="351" priority="851">
       <formula>COUNTIF(F36:O36,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="852">
+    <cfRule type="expression" dxfId="350" priority="852">
       <formula>AND(COUNTIF(F36:O36,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="691" priority="171">
+    <cfRule type="expression" dxfId="349" priority="171">
       <formula>COUNTIF(F7:O7,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="172">
+    <cfRule type="expression" dxfId="348" priority="172">
       <formula>AND(COUNTIF(F7:O7,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D28 D31:D32">
-    <cfRule type="expression" dxfId="689" priority="853">
+    <cfRule type="expression" dxfId="347" priority="853">
       <formula>COUNTIF(F27:N27,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="854">
+    <cfRule type="expression" dxfId="346" priority="854">
       <formula>AND(COUNTIF(F27:N27,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D27)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/atomica/library/combined_progbook.xlsx
+++ b/atomica/library/combined_progbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE9C9DE-0F29-438D-986E-876F6E0A8B47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68887E70-0617-464D-858A-C3D7506C3F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,21 +46,6 @@
   </si>
   <si>
     <t>Display name</t>
-  </si>
-  <si>
-    <t>SIR 1</t>
-  </si>
-  <si>
-    <t>SIR 2</t>
-  </si>
-  <si>
-    <t>SIR 3</t>
-  </si>
-  <si>
-    <t>UDT 1</t>
-  </si>
-  <si>
-    <t>UDT 2</t>
   </si>
   <si>
     <t>Susceptible</t>
@@ -196,6 +182,21 @@
   <si>
     <t>Treatment 2</t>
   </si>
+  <si>
+    <t>SIR 0-4</t>
+  </si>
+  <si>
+    <t>SIR 5-14</t>
+  </si>
+  <si>
+    <t>SIR 15-64</t>
+  </si>
+  <si>
+    <t>UDT 0-14</t>
+  </si>
+  <si>
+    <t>UDT 15-64</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -298,6 +299,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6767,6 +6773,31 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Population Definitions"/>
+      <sheetName val="State Variables"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Stocks"/>
+      <sheetName val="Flows"/>
+      <sheetName val="Interactions"/>
+      <sheetName val="Transfers"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7095,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7108,9 +7139,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7122,407 +7157,407 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7872,6 +7907,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7899,13 +7935,13 @@
         <v>Risk avoidance</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2">
@@ -7926,15 +7962,15 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5">
         <v>500000</v>
@@ -7946,15 +7982,15 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -7968,15 +8004,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -7986,15 +8022,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -8004,15 +8040,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -8026,13 +8062,13 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -8053,15 +8089,15 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5">
         <v>200000</v>
@@ -8073,15 +8109,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5">
         <v>20</v>
@@ -8093,15 +8129,15 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -8113,15 +8149,15 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -8131,15 +8167,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F13" s="5">
         <v>20</v>
@@ -8155,13 +8191,13 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -8182,15 +8218,15 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F16" s="5">
         <v>300000</v>
@@ -8202,15 +8238,15 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F17" s="5">
         <v>25</v>
@@ -8222,15 +8258,15 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -8240,15 +8276,15 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -8258,15 +8294,15 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -8280,13 +8316,13 @@
         <v>Treatment 1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -8307,15 +8343,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F23" s="5">
         <v>3500000</v>
@@ -8327,15 +8363,15 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F24" s="5">
         <v>120</v>
@@ -8347,15 +8383,15 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F25" s="5">
         <v>10000000</v>
@@ -8367,15 +8403,15 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -8385,15 +8421,15 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -8407,13 +8443,13 @@
         <v>Treatment 2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
@@ -8434,15 +8470,15 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F30" s="5">
         <v>1500000</v>
@@ -8456,15 +8492,15 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F31" s="5">
         <v>100</v>
@@ -8478,15 +8514,15 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5">
         <v>5000000</v>
@@ -8500,15 +8536,15 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -8518,15 +8554,15 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -8540,13 +8576,13 @@
         <v>Testing - pharmacies</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
@@ -8564,15 +8600,15 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="5">
@@ -8583,15 +8619,15 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="5">
@@ -8602,15 +8638,15 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -8619,15 +8655,15 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -8636,15 +8672,15 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
       <c r="E41" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="5">
@@ -8659,13 +8695,13 @@
         <v>Testing - clinics</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2">
@@ -8683,15 +8719,15 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="5">
@@ -8702,15 +8738,15 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="5">
@@ -8721,15 +8757,15 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -8738,15 +8774,15 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -8755,15 +8791,15 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="5">
@@ -8778,13 +8814,13 @@
         <v>Testing - outreach</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
@@ -8802,15 +8838,15 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
       <c r="E51" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="5">
@@ -8821,15 +8857,15 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="5">
@@ -8840,15 +8876,15 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -8857,15 +8893,15 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -8874,15 +8910,15 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="5">
@@ -8897,13 +8933,13 @@
         <v>Adherence</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2">
@@ -8921,15 +8957,15 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="5">
@@ -8940,15 +8976,15 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="5">
@@ -8959,15 +8995,15 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -8976,15 +9012,15 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -8993,15 +9029,15 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
       <c r="E62" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="5">
@@ -9384,7 +9420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -9403,19 +9439,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -9457,13 +9493,13 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
-        <v>SIR 1</v>
+        <v>SIR 0-4</v>
       </c>
       <c r="B2" s="5">
         <v>0.01</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -9484,13 +9520,13 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'Program targeting'!$D$2</f>
-        <v>SIR 2</v>
+        <v>SIR 5-14</v>
       </c>
       <c r="B3" s="5">
         <v>0.01</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -9511,13 +9547,13 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>SIR 3</v>
+        <v>SIR 15-64</v>
       </c>
       <c r="B4" s="5">
         <v>0.01</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -9537,19 +9573,19 @@
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -9591,13 +9627,13 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Program targeting'!$C$2</f>
-        <v>SIR 1</v>
+        <v>SIR 0-4</v>
       </c>
       <c r="B7" s="5">
         <v>110</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -9618,13 +9654,13 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$D$2</f>
-        <v>SIR 2</v>
+        <v>SIR 5-14</v>
       </c>
       <c r="B8" s="5">
         <v>110</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -9645,13 +9681,13 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>SIR 3</v>
+        <v>SIR 15-64</v>
       </c>
       <c r="B9" s="5">
         <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -9671,19 +9707,19 @@
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -9725,13 +9761,13 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Program targeting'!$C$2</f>
-        <v>SIR 1</v>
+        <v>SIR 0-4</v>
       </c>
       <c r="B12" s="5">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -9752,13 +9788,13 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Program targeting'!$D$2</f>
-        <v>SIR 2</v>
+        <v>SIR 5-14</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -9779,13 +9815,13 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>SIR 3</v>
+        <v>SIR 15-64</v>
       </c>
       <c r="B14" s="5">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -9805,19 +9841,19 @@
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -9859,13 +9895,13 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>'Program targeting'!$C$2</f>
-        <v>SIR 1</v>
+        <v>SIR 0-4</v>
       </c>
       <c r="B17" s="5">
         <v>0.02</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -9886,13 +9922,13 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Program targeting'!$D$2</f>
-        <v>SIR 2</v>
+        <v>SIR 5-14</v>
       </c>
       <c r="B18" s="5">
         <v>0.02</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -9913,13 +9949,13 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>SIR 3</v>
+        <v>SIR 15-64</v>
       </c>
       <c r="B19" s="5">
         <v>0.02</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9939,19 +9975,19 @@
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -9993,11 +10029,11 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Program targeting'!$C$2</f>
-        <v>SIR 1</v>
+        <v>SIR 0-4</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -10014,11 +10050,11 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Program targeting'!$D$2</f>
-        <v>SIR 2</v>
+        <v>SIR 5-14</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -10035,11 +10071,11 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>'Program targeting'!$E$2</f>
-        <v>SIR 3</v>
+        <v>SIR 15-64</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -10055,19 +10091,19 @@
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -10109,13 +10145,13 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>UDT 1</v>
+        <v>UDT 0-14</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -10138,13 +10174,13 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>UDT 2</v>
+        <v>UDT 15-64</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -10166,19 +10202,19 @@
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -10220,13 +10256,13 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>UDT 1</v>
+        <v>UDT 0-14</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -10249,13 +10285,13 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>UDT 2</v>
+        <v>UDT 15-64</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -10277,19 +10313,19 @@
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -10331,13 +10367,13 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Program targeting'!$F$2</f>
-        <v>UDT 1</v>
+        <v>UDT 0-14</v>
       </c>
       <c r="B35" s="5">
         <v>0.2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -10356,13 +10392,13 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>'Program targeting'!$G$2</f>
-        <v>UDT 2</v>
+        <v>UDT 15-64</v>
       </c>
       <c r="B36" s="5">
         <v>0.2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
